--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2000.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2000.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>39332.599999999999</t>
+          <t>39332.6</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>34.939999999999998</t>
+          <t>34.94</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>488.48000000000002</t>
+          <t>488.48</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>585287.73999999999</t>
+          <t>585287.74</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>47.350000000000001</t>
+          <t>47.35</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>19683.700000000001</t>
+          <t>19683.7</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>51520.839999999997</t>
+          <t>51520.84</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>85.819999999999993</t>
+          <t>85.82</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>357.47000000000003</t>
+          <t>357.47</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>260.17000000000002</t>
+          <t>260.17</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>56.560000000000002</t>
+          <t>56.56</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>771.14999999999998</t>
+          <t>771.15</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>425.41000000000003</t>
+          <t>425.41</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>695.96000000000004</t>
+          <t>695.96</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>45143.860000000001</t>
+          <t>45143.86</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>4720.7299999999996</t>
+          <t>4720.73</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
-          <t>360.20999999999998</t>
+          <t>360.21</t>
         </is>
       </c>
       <c r="E79" s="0" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>3362.1300000000001</t>
+          <t>3362.13</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>159.19999999999999</t>
+          <t>159.2</t>
         </is>
       </c>
       <c r="E81" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>231789.10000000001</t>
+          <t>231789.1</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>1457.5699999999999</t>
+          <t>1457.57</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>1263.5899999999999</t>
+          <t>1263.59</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>164469.10999999999</t>
+          <t>164469.11</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
-          <t>14639.969999999999</t>
+          <t>14639.97</t>
         </is>
       </c>
       <c r="E89" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>2574.4200000000001</t>
+          <t>2574.42</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>37236.910000000003</t>
+          <t>37236.91</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>171.61000000000001</t>
+          <t>171.61</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>564.02999999999997</t>
+          <t>564.03</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="D109" s="0" t="inlineStr">
         <is>
-          <t>101.23999999999999</t>
+          <t>101.24</t>
         </is>
       </c>
       <c r="E109" s="0" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
-          <t>7548.7399999999998</t>
+          <t>7548.74</t>
         </is>
       </c>
       <c r="E111" s="0" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>502.24000000000001</t>
+          <t>502.24</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>29496.389999999999</t>
+          <t>29496.39</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D118" s="0" t="inlineStr">
         <is>
-          <t>3194.5100000000002</t>
+          <t>3194.51</t>
         </is>
       </c>
       <c r="E118" s="0" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="D120" s="0" t="inlineStr">
         <is>
-          <t>421.72000000000003</t>
+          <t>421.72</t>
         </is>
       </c>
       <c r="E120" s="0" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>4649.4300000000003</t>
+          <t>4649.43</t>
         </is>
       </c>
       <c r="E122" s="0" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
-          <t>68627.009999999995</t>
+          <t>68627.01</t>
         </is>
       </c>
       <c r="E125" s="0" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D126" s="0" t="inlineStr">
         <is>
-          <t>30512.650000000001</t>
+          <t>30512.65</t>
         </is>
       </c>
       <c r="E126" s="0" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D130" s="0" t="inlineStr">
         <is>
-          <t>4877.1599999999999</t>
+          <t>4877.16</t>
         </is>
       </c>
       <c r="E130" s="0" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>755.65999999999997</t>
+          <t>755.66</t>
         </is>
       </c>
       <c r="E144" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>2994457.9100000001</t>
+          <t>2994457.91</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>268134.33000000002</t>
+          <t>268134.33</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>36409.419999999998</t>
+          <t>36409.42</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>236887.45999999999</t>
+          <t>236887.46</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="D161" s="0" t="inlineStr">
         <is>
-          <t>22550.439999999999</t>
+          <t>22550.44</t>
         </is>
       </c>
       <c r="E161" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>208858.67999999999</t>
+          <t>208858.68</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="D163" s="0" t="inlineStr">
         <is>
-          <t>38421.510000000002</t>
+          <t>38421.51</t>
         </is>
       </c>
       <c r="E163" s="0" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
-          <t>23011.009999999998</t>
+          <t>23011.01</t>
         </is>
       </c>
       <c r="E165" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>6559100.0899999999</t>
+          <t>6559100.09</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>131976.01999999999</t>
+          <t>131976.02</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>1950341.4299999999</t>
+          <t>1950341.43</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D170" s="0" t="inlineStr">
         <is>
-          <t>9168.8899999999994</t>
+          <t>9168.89</t>
         </is>
       </c>
       <c r="E170" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>278948.59999999998</t>
+          <t>278948.6</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>98735.800000000003</t>
+          <t>98735.8</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>17069.240000000002</t>
+          <t>17069.24</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>20360.639999999999</t>
+          <t>20360.64</t>
         </is>
       </c>
       <c r="E175" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>167433.14000000001</t>
+          <t>167433.14</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>40632.379999999997</t>
+          <t>40632.38</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>326183.98999999999</t>
+          <t>326183.99</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>33340.809999999998</t>
+          <t>33340.81</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>704526.41000000003</t>
+          <t>704526.41</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>1080.5999999999999</t>
+          <t>1080.6</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>28309.580000000002</t>
+          <t>28309.58</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="D186" s="0" t="inlineStr">
         <is>
-          <t>19474.549999999999</t>
+          <t>19474.55</t>
         </is>
       </c>
       <c r="E186" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>28810.900000000001</t>
+          <t>28810.9</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>49658.110000000001</t>
+          <t>49658.11</t>
         </is>
       </c>
       <c r="E188" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>409470.73999999999</t>
+          <t>409470.74</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D194" s="0" t="inlineStr">
         <is>
-          <t>11864.559999999999</t>
+          <t>11864.56</t>
         </is>
       </c>
       <c r="E194" s="0" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="D195" s="0" t="inlineStr">
         <is>
-          <t>4822.0500000000002</t>
+          <t>4822.05</t>
         </is>
       </c>
       <c r="E195" s="0" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="D196" s="0" t="inlineStr">
         <is>
-          <t>8.4600000000000009</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="E196" s="0" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D198" s="0" t="inlineStr">
         <is>
-          <t>14253.940000000001</t>
+          <t>14253.94</t>
         </is>
       </c>
       <c r="E198" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>1739.3399999999999</t>
+          <t>1739.34</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="D203" s="0" t="inlineStr">
         <is>
-          <t>8506.1000000000004</t>
+          <t>8506.1</t>
         </is>
       </c>
       <c r="E203" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>376.43000000000001</t>
+          <t>376.43</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>1422.6400000000001</t>
+          <t>1422.64</t>
         </is>
       </c>
       <c r="E206" s="0" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="D207" s="0" t="inlineStr">
         <is>
-          <t>45311.809999999998</t>
+          <t>45311.81</t>
         </is>
       </c>
       <c r="E207" s="0" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D208" s="0" t="inlineStr">
         <is>
-          <t>4744.0500000000002</t>
+          <t>4744.05</t>
         </is>
       </c>
       <c r="E208" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>88302.690000000002</t>
+          <t>88302.69</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D214" s="0" t="inlineStr">
         <is>
-          <t>1895.3699999999999</t>
+          <t>1895.37</t>
         </is>
       </c>
       <c r="E214" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>41801.900000000001</t>
+          <t>41801.9</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="D217" s="0" t="inlineStr">
         <is>
-          <t>29028.939999999999</t>
+          <t>29028.94</t>
         </is>
       </c>
       <c r="E217" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>135762.54999999999</t>
+          <t>135762.55</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D219" s="0" t="inlineStr">
         <is>
-          <t>2986.4000000000001</t>
+          <t>2986.4</t>
         </is>
       </c>
       <c r="E219" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>125115.67999999999</t>
+          <t>125115.68</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="D224" s="0" t="inlineStr">
         <is>
-          <t>5983.1199999999999</t>
+          <t>5983.12</t>
         </is>
       </c>
       <c r="E224" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>138.25999999999999</t>
+          <t>138.26</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="D228" s="0" t="inlineStr">
         <is>
-          <t>14043.110000000001</t>
+          <t>14043.11</t>
         </is>
       </c>
       <c r="E228" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>80251.509999999995</t>
+          <t>80251.51</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>16027.719999999999</t>
+          <t>16027.72</t>
         </is>
       </c>
       <c r="E230" s="0" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="D231" s="0" t="inlineStr">
         <is>
-          <t>4235.8800000000001</t>
+          <t>4235.88</t>
         </is>
       </c>
       <c r="E231" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>7864.0500000000002</t>
+          <t>7864.05</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="D233" s="0" t="inlineStr">
         <is>
-          <t>42503.099999999999</t>
+          <t>42503.1</t>
         </is>
       </c>
       <c r="E233" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>99638.360000000001</t>
+          <t>99638.36</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>2149445.9500000002</t>
+          <t>2149445.95</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>7448.3500000000004</t>
+          <t>7448.35</t>
         </is>
       </c>
       <c r="E236" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>36804.889999999999</t>
+          <t>36804.89</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D238" s="0" t="inlineStr">
         <is>
-          <t>3074.3000000000002</t>
+          <t>3074.3</t>
         </is>
       </c>
       <c r="E238" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>3591.1700000000001</t>
+          <t>3591.17</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="D246" s="0" t="inlineStr">
         <is>
-          <t>219.43000000000001</t>
+          <t>219.43</t>
         </is>
       </c>
       <c r="E246" s="0" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>183.46000000000001</t>
+          <t>183.46</t>
         </is>
       </c>
       <c r="E250" s="0" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="D252" s="0" t="inlineStr">
         <is>
-          <t>206822.76000000001</t>
+          <t>206822.76</t>
         </is>
       </c>
       <c r="E252" s="0" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="D253" s="0" t="inlineStr">
         <is>
-          <t>19719.939999999999</t>
+          <t>19719.94</t>
         </is>
       </c>
       <c r="E253" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>3198.9699999999998</t>
+          <t>3198.97</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>1650.6099999999999</t>
+          <t>1650.61</t>
         </is>
       </c>
       <c r="E257" s="0" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>24106.509999999998</t>
+          <t>24106.51</t>
         </is>
       </c>
       <c r="E258" s="0" t="inlineStr">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="D259" s="0" t="inlineStr">
         <is>
-          <t>1059.0599999999999</t>
+          <t>1059.06</t>
         </is>
       </c>
       <c r="E259" s="0" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
-          <t>1469.0799999999999</t>
+          <t>1469.08</t>
         </is>
       </c>
       <c r="E261" s="0" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="D263" s="0" t="inlineStr">
         <is>
-          <t>1735.9000000000001</t>
+          <t>1735.9</t>
         </is>
       </c>
       <c r="E263" s="0" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D266" s="0" t="inlineStr">
         <is>
-          <t>3516.6100000000001</t>
+          <t>3516.61</t>
         </is>
       </c>
       <c r="E266" s="0" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="D267" s="0" t="inlineStr">
         <is>
-          <t>15635.860000000001</t>
+          <t>15635.86</t>
         </is>
       </c>
       <c r="E267" s="0" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D268" s="0" t="inlineStr">
         <is>
-          <t>5787.8000000000002</t>
+          <t>5787.8</t>
         </is>
       </c>
       <c r="E268" s="0" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D270" s="0" t="inlineStr">
         <is>
-          <t>208.03999999999999</t>
+          <t>208.04</t>
         </is>
       </c>
       <c r="E270" s="0" t="inlineStr">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="D274" s="0" t="inlineStr">
         <is>
-          <t>202.19999999999999</t>
+          <t>202.2</t>
         </is>
       </c>
       <c r="E274" s="0" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D275" s="0" t="inlineStr">
         <is>
-          <t>5382.7799999999997</t>
+          <t>5382.78</t>
         </is>
       </c>
       <c r="E275" s="0" t="inlineStr">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="D276" s="0" t="inlineStr">
         <is>
-          <t>4014.6500000000001</t>
+          <t>4014.65</t>
         </is>
       </c>
       <c r="E276" s="0" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="D279" s="0" t="inlineStr">
         <is>
-          <t>5626.6300000000001</t>
+          <t>5626.63</t>
         </is>
       </c>
       <c r="E279" s="0" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="D282" s="0" t="inlineStr">
         <is>
-          <t>6520.9499999999998</t>
+          <t>6520.95</t>
         </is>
       </c>
       <c r="E282" s="0" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>2802170.2200000002</t>
+          <t>2802170.22</t>
         </is>
       </c>
       <c r="E284" s="0" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="D286" s="0" t="inlineStr">
         <is>
-          <t>17793.970000000001</t>
+          <t>17793.97</t>
         </is>
       </c>
       <c r="E286" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>1082443.3100000001</t>
+          <t>1082443.31</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="D290" s="0" t="inlineStr">
         <is>
-          <t>101.09999999999999</t>
+          <t>101.1</t>
         </is>
       </c>
       <c r="E290" s="0" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>1885.6700000000001</t>
+          <t>1885.67</t>
         </is>
       </c>
       <c r="E291" s="0" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>202.19999999999999</t>
+          <t>202.2</t>
         </is>
       </c>
       <c r="E294" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>90105.869999999995</t>
+          <t>90105.87</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>40940.459999999999</t>
+          <t>40940.46</t>
         </is>
       </c>
       <c r="E327" s="0" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>84028.600000000006</t>
+          <t>84028.6</t>
         </is>
       </c>
       <c r="E330" s="0" t="inlineStr">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="D338" s="0" t="inlineStr">
         <is>
-          <t>1495.6400000000001</t>
+          <t>1495.64</t>
         </is>
       </c>
       <c r="E338" s="0" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="D358" s="0" t="inlineStr">
         <is>
-          <t>24.260000000000002</t>
+          <t>24.26</t>
         </is>
       </c>
       <c r="E358" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>27338.029999999999</t>
+          <t>27338.03</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="D383" s="0" t="inlineStr">
         <is>
-          <t>9442.7399999999998</t>
+          <t>9442.74</t>
         </is>
       </c>
       <c r="E383" s="0" t="inlineStr">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="D398" s="0" t="inlineStr">
         <is>
-          <t>3238.4299999999998</t>
+          <t>3238.43</t>
         </is>
       </c>
       <c r="E398" s="0" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="D400" s="0" t="inlineStr">
         <is>
-          <t>2477.2600000000002</t>
+          <t>2477.26</t>
         </is>
       </c>
       <c r="E400" s="0" t="inlineStr">
@@ -11890,7 +11890,7 @@
       </c>
       <c r="D427" s="0" t="inlineStr">
         <is>
-          <t>2607.6900000000001</t>
+          <t>2607.69</t>
         </is>
       </c>
       <c r="E427" s="0" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="D440" s="0" t="inlineStr">
         <is>
-          <t>703.59000000000003</t>
+          <t>703.59</t>
         </is>
       </c>
       <c r="E440" s="0" t="inlineStr">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="D470" s="0" t="inlineStr">
         <is>
-          <t>804.74000000000001</t>
+          <t>804.74</t>
         </is>
       </c>
       <c r="E470" s="0" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="D474" s="0" t="inlineStr">
         <is>
-          <t>45.369999999999997</t>
+          <t>45.37</t>
         </is>
       </c>
       <c r="E474" s="0" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="D476" s="0" t="inlineStr">
         <is>
-          <t>858.73000000000002</t>
+          <t>858.73</t>
         </is>
       </c>
       <c r="E476" s="0" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="D479" s="0" t="inlineStr">
         <is>
-          <t>1106.1300000000001</t>
+          <t>1106.13</t>
         </is>
       </c>
       <c r="E479" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>64647.940000000002</t>
+          <t>64647.94</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="D509" s="0" t="inlineStr">
         <is>
-          <t>976.48000000000002</t>
+          <t>976.48</t>
         </is>
       </c>
       <c r="E509" s="0" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="D527" s="0" t="inlineStr">
         <is>
-          <t>707.70000000000005</t>
+          <t>707.7</t>
         </is>
       </c>
       <c r="E527" s="0" t="inlineStr">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="D530" s="0" t="inlineStr">
         <is>
-          <t>358.91000000000003</t>
+          <t>358.91</t>
         </is>
       </c>
       <c r="E530" s="0" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="D552" s="0" t="inlineStr">
         <is>
-          <t>31953.709999999999</t>
+          <t>31953.71</t>
         </is>
       </c>
       <c r="E552" s="0" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D587" s="0" t="inlineStr">
         <is>
-          <t>5623.0600000000004</t>
+          <t>5623.06</t>
         </is>
       </c>
       <c r="E587" s="0" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="D589" s="0" t="inlineStr">
         <is>
-          <t>6769.3400000000001</t>
+          <t>6769.34</t>
         </is>
       </c>
       <c r="E589" s="0" t="inlineStr">
@@ -16426,7 +16426,7 @@
       </c>
       <c r="D595" s="0" t="inlineStr">
         <is>
-          <t>19107.900000000001</t>
+          <t>19107.9</t>
         </is>
       </c>
       <c r="E595" s="0" t="inlineStr">
@@ -17749,7 +17749,7 @@
       </c>
       <c r="D644" s="0" t="inlineStr">
         <is>
-          <t>1051.4400000000001</t>
+          <t>1051.44</t>
         </is>
       </c>
       <c r="E644" s="0" t="inlineStr">
@@ -18154,7 +18154,7 @@
       </c>
       <c r="D659" s="0" t="inlineStr">
         <is>
-          <t>28985.439999999999</t>
+          <t>28985.44</t>
         </is>
       </c>
       <c r="E659" s="0" t="inlineStr">
@@ -19126,7 +19126,7 @@
       </c>
       <c r="D695" s="0" t="inlineStr">
         <is>
-          <t>1804.3800000000001</t>
+          <t>1804.38</t>
         </is>
       </c>
       <c r="E695" s="0" t="inlineStr">
